--- a/VQ_results (live).xlsx
+++ b/VQ_results (live).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,55 +445,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>VQ#</t>
+          <t>Sender Email</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Sender Email</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>Descriptions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Descriptions</t>
+          <t>Condition Codes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Condition Codes</t>
+          <t>Unit Price</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Unit Price</t>
+          <t>Cert Type</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cert Type</t>
+          <t>Detected Dates</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Detected Dates</t>
+          <t>Qty</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Error %</t>
         </is>
@@ -505,55 +500,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VQ0001</t>
+          <t>randy.hill@aero-zone.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>randy.hill@aero-zone.com</t>
+          <t>AERO-ZONE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AERO-ZONE</t>
+          <t>762185H; 762185J</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>762185H; 762185J</t>
+          <t>gcu; gcu</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>gcu; gcu</t>
+          <t>RP; NE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NE; NE</t>
+          <t>3500.0; Call for Price</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3500.0; Call for Price</t>
+          <t>Cert details not listed; Cert details not listed</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Cert details not listed; Cert details not listed</t>
+          <t>2024-09-26; 2024-09-26</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-09-26; 2024-09-26</t>
+          <t>1; 1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>1; 1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -565,55 +555,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VQ0002</t>
+          <t>sales@wyattaerospace.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sales@wyattaerospace.com</t>
+          <t>WYATT AEROSPACE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>WYATT AEROSPACE</t>
+          <t>AE1012B00; AE1012B00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AE1012B00; AE1012B00</t>
+          <t>fan-recirculation; fan-recirculation</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fan-recirculation; fan-recirculation</t>
+          <t>NS; SV</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NE; NE</t>
+          <t>13000.0; 11300.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>13000.0; 11300.0</t>
+          <t>Cert details not listed; Cert details not listed</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Cert details not listed; Cert details not listed</t>
+          <t>2024-08-08; 2024-05-08</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-08-08; 2024-05-08</t>
+          <t>1; 1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>1; 1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -625,55 +610,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VQ0003</t>
+          <t>NickLiberio@TurboResources.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NickLiberio@TurboResources.com</t>
+          <t>TURBO RESOURCES INT'L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TURBO RESOURCES INT'L</t>
+          <t>C17001DA01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>C17001DA01</t>
+          <t>air data</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>air data</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>14580.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14580.0</t>
+          <t>FAA 8130-3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>FAA 8130-3</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -685,55 +665,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VQ0004</t>
+          <t>engcmu@srilankan.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>engcmu@srilankan.com</t>
+          <t>SRILANKAN AIRLINES</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SRILANKAN AIRLINES</t>
+          <t>762185H</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>762185H</t>
+          <t>gcu</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>2450.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2450.0</t>
+          <t>Dual Release</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Dual Release</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -745,37 +720,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VQ0005</t>
+          <t>sales@horizon-flights.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sales@horizon-flights.com</t>
+          <t>HORIZON FLIGHTS SERVICES LTD</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HORIZON FLIGHTS SERVICES LTD</t>
+          <t>1151952-19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1151952-19</t>
+          <t>gcu</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,15 +760,10 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -805,55 +775,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VQ0006</t>
+          <t xml:space="preserve">quote@comet-aerospace.us  </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">quote@comet-aerospace.us  </t>
+          <t>PACMET AEROSPACE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PACMET AEROSPACE</t>
+          <t>S5397132100802</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S5397132100802</t>
+          <t>gcu</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>gcu</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Price not listed</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Price not listed</t>
+          <t>EASA</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>EASA</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -865,55 +830,50 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VQ0007</t>
+          <t>philipp.labs@aps-aviation.com</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>philipp.labs@aps-aviation.com</t>
+          <t>APS-AVIATION PARTS SERVICES</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>APS-AVIATION PARTS SERVICES</t>
+          <t>263BA101-2; 263BA101-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>263BA101-2; 263BA101-2</t>
+          <t>battery; battery</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>battery; battery</t>
+          <t>NS; NE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NE; NE</t>
+          <t>Price not listed; Price not listed</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Price not listed; Price not listed</t>
+          <t>Dual Release; Dual Release</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dual Release; Dual Release</t>
+          <t>2023-06-29; 2023-09-25</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2023-06-29; 2023-09-25</t>
+          <t>1; 1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>1; 1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -925,55 +885,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VQ0008</t>
+          <t>sales@dasi.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sales@dasi.com</t>
+          <t>DIVERSIFIED AERO SVC INC (DASI)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DIVERSIFIED AERO SVC INC (DASI)</t>
+          <t>100-5383Y-00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100-5383Y-00</t>
+          <t>landing gear selector valve</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>landing gear selector valve</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>3495.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3495.0</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -985,55 +940,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VQ0009</t>
+          <t>sales@dasi.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sales@dasi.com</t>
+          <t>DIVERSIFIED AERO SVC INC (DASI)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DIVERSIFIED AERO SVC INC (DASI)</t>
+          <t>C17001BA01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>C17001BA01</t>
+          <t>air data mdl</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>air data mdl</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3000.0</t>
+          <t>Dual Release</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Dual Release</t>
+          <t>2023-09-07</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2023-09-07</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1045,37 +995,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VQ0010</t>
+          <t>textquote2@brooks-maldini.net</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>textquote2@brooks-maldini.net</t>
+          <t>BROOKS &amp; MALDINI CORPORATION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BROOKS &amp; MALDINI CORPORATION</t>
+          <t>715331</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>715331</t>
+          <t>seal</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>seal</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Price not listed</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Price not listed</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1085,15 +1035,10 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1105,55 +1050,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VQ0011</t>
+          <t>jurgita.matacinskaite@aerohero.eu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jurgita.matacinskaite@aerohero.eu</t>
+          <t>AERO HERO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AERO HERO</t>
+          <t>715331</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>715331</t>
+          <t>seal</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>seal</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>4106.87</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4106.87</t>
+          <t>FAA 8130-3</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>FAA 8130-3</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1165,37 +1105,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VQ0012</t>
+          <t>janelle@cavuaerospace.com</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>janelle@cavuaerospace.com</t>
+          <t>CAVU AEROSPACE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CAVU AEROSPACE</t>
+          <t>16520-101</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16520-101</t>
+          <t>actuator,retraction (nlg)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>actuator,retraction (nlg)</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>3500.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>3500.0</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1205,15 +1145,10 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1225,55 +1160,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VQ0013</t>
+          <t>CQ@oceanair.aero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CQ@oceanair.aero</t>
+          <t>OCEAN AIR, INC.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OCEAN AIR, INC.</t>
+          <t>300013000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>300013000</t>
+          <t>valve cowl anti-ice</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>valve cowl anti-ice</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>10500.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10500.0</t>
+          <t>Dual Release</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Dual Release</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
@@ -1285,37 +1215,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VQ0014</t>
+          <t>katie.botthof@avair.aero</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>katie.botthof@avair.aero</t>
+          <t>AVAIR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AVAIR</t>
+          <t>898930-10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>898930-10</t>
+          <t>valve</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>valve</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>15990.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15990.0</t>
+          <t>Cert details not listed</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1325,15 +1255,10 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cert details not listed</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>0.00%</t>
         </is>
